--- a/src/OUTPUT/Detected-Standard-Permissions.xlsx
+++ b/src/OUTPUT/Detected-Standard-Permissions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,44 +441,44 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ACCESS_COARSE_LOCATION</t>
+          <t>ACCESS_NETWORK_STATE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ACCESS_FINE_LOCATION</t>
+          <t>ACCESS_WIFI_STATE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ACCESS_LOCATION_EXTRA_COMMANDS</t>
+          <t>ACCOUNT_MANAGER</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ACCESS_NETWORK_STATE</t>
+          <t>AUTHENTICATE_ACCOUNTS</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ACCESS_WIFI_STATE</t>
+          <t>BIND_ACCESSIBILITY_SERVICE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>BLUETOOTH</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>BROADCAST_STICKY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>CALL_PHONE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CHANGE_NETWORK_STATE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CHANGE_WIFI_MULTICAST_STATE</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CHANGE_WIFI_STATE</t>
@@ -496,107 +496,172 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>GET_ACCOUNTS</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>GET_PACKAGE_SIZE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>GET_TASKS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>INTERNET</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>KILL_BACKGROUND_PROCESSES</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>MODIFY_AUDIO_SETTINGS</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>MODIFY_PHONE_STATE</t>
+          <t>MANAGE_ACCOUNTS</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>PACKAGE_USAGE_STATS</t>
+          <t>MANAGE_OWN_CALLS</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>NFC</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>READ_CONTACTS</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>READ_EXTERNAL_STORAGE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>READ_PHONE_STATE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>READ_SMS</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>READ_SYNC_SETTINGS</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>RECEIVE_BOOT_COMPLETED</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>RECEIVE_SMS</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>RECORD_AUDIO</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>REORDER_TASKS</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>REQUEST_COMPANION_RUN_IN_BACKGROUND</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>REQUEST_COMPANION_USE_DATA_IN_BACKGROUND</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>REQUEST_DELETE_PACKAGES</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>REQUEST_IGNORE_BATTERY_OPTIMIZATIONS</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>REQUEST_INSTALL_PACKAGES</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>SEND_SMS</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>SET_ALARM</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>SET_WALLPAPER</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>SYSTEM_ALERT_WINDOW</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>SYSTEM_OVERLAY_WINDOW</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>TRANSMIT_IR</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>USE_CREDENTIALS</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>USE_FULL_SCREEN_INTENT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>VIBRATE</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>WAKE_LOCK</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>WRITE_CONTACTS</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>WRITE_EXTERNAL_STORAGE</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>WRITE_SMS</t>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>WRITE_SYNC_SETTINGS</t>
         </is>
       </c>
     </row>
@@ -605,64 +670,36 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
           <t>X</t>
@@ -673,59 +710,52 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
@@ -734,67 +764,39 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
           <t>X</t>
@@ -805,22 +807,18 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
           <t>X</t>
@@ -831,90 +829,79 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
           <t>X</t>
@@ -925,44 +912,49 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -973,54 +965,42 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
           <t>X</t>
@@ -1041,33 +1021,21 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
           <t>X</t>
@@ -1078,97 +1046,70 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>103</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
           <t>X</t>
@@ -1189,80 +1130,81 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
@@ -1280,23 +1222,15 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
           <t>X</t>
@@ -1327,34 +1261,59 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -1365,24 +1324,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>89</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
@@ -1391,102 +1346,442 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>93</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>98</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
         <is>
           <t>X</t>
         </is>
